--- a/final.xlsx
+++ b/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="164">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -436,21 +436,30 @@
     <t>Delete(Y/N)</t>
   </si>
   <si>
+    <t>hivPositiveNC30-34</t>
+  </si>
+  <si>
     <t>MBERENGWA</t>
   </si>
   <si>
     <t>MNENE - 101029 - MISSION HOSPITAL</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Mnene Hospital</t>
+  </si>
+  <si>
     <t>Gaha Clinic</t>
   </si>
   <si>
-    <t>Mnene Hospital</t>
-  </si>
-  <si>
     <t>Chiedza Clinic</t>
   </si>
   <si>
@@ -460,10 +469,34 @@
     <t>submission</t>
   </si>
   <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>2025-04-03T22:40:10.996208Z</t>
+  </si>
+  <si>
+    <t>2025-03-28T08:35:41.849985Z</t>
+  </si>
+  <si>
+    <t>2025-03-26T07:29:17.931813Z</t>
+  </si>
+  <si>
+    <t>2025-03-24T14:07:29.895824Z</t>
+  </si>
+  <si>
     <t>2025-03-20T10:36:00.570358Z</t>
   </si>
   <si>
+    <t>2025-03-20T08:23:26.246316Z</t>
+  </si>
+  <si>
     <t>2025-03-20T07:28:50.687097Z</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
   <si>
     <t>February</t>
@@ -830,13 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK5"/>
+  <dimension ref="A1:EL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:141">
+    <row r="1" spans="1:142">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,8 +1290,11 @@
       <c r="EK1" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="EL1" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="2" spans="1:141">
+    <row r="2" spans="1:142">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1272,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1284,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1308,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1320,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1356,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1449,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -1479,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BW2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -1491,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1623,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DS2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="DT2">
         <v>0</v>
@@ -1635,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="DW2">
         <v>0</v>
@@ -1662,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -1674,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="EI2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -1682,8 +1718,11 @@
       <c r="EK2">
         <v>0</v>
       </c>
+      <c r="EL2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:141">
+    <row r="3" spans="1:142">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1697,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1709,55 +1748,55 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J3">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3">
+        <v>21</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1781,11 +1820,11 @@
         <v>1</v>
       </c>
       <c r="AG3">
+        <v>21</v>
+      </c>
+      <c r="AH3">
         <v>12</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
       <c r="AI3">
         <v>0</v>
       </c>
@@ -1805,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1856,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1874,11 +1913,11 @@
         <v>0</v>
       </c>
       <c r="BL3">
+        <v>21</v>
+      </c>
+      <c r="BM3">
         <v>12</v>
       </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
       <c r="BN3">
         <v>0</v>
       </c>
@@ -1904,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BW3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -1916,11 +1955,11 @@
         <v>0</v>
       </c>
       <c r="BZ3">
+        <v>21</v>
+      </c>
+      <c r="CA3">
         <v>12</v>
       </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
       <c r="CB3">
         <v>0</v>
       </c>
@@ -1991,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="CY3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
         <v>0</v>
@@ -2045,52 +2084,52 @@
         <v>0</v>
       </c>
       <c r="DQ3">
+        <v>2</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>33</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>33</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>5</v>
+      </c>
+      <c r="DY3">
+        <v>2</v>
+      </c>
+      <c r="DZ3">
         <v>1</v>
       </c>
-      <c r="DR3">
-        <v>0</v>
-      </c>
-      <c r="DS3">
-        <v>12</v>
-      </c>
-      <c r="DT3">
-        <v>0</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
-        <v>12</v>
-      </c>
-      <c r="DW3">
-        <v>0</v>
-      </c>
-      <c r="DX3">
-        <v>6</v>
-      </c>
-      <c r="DY3">
+      <c r="EA3">
         <v>1</v>
       </c>
-      <c r="DZ3">
-        <v>2</v>
-      </c>
-      <c r="EA3">
-        <v>2</v>
-      </c>
       <c r="EB3">
         <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>151</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="EF3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EG3">
         <v>1</v>
@@ -2107,8 +2146,11 @@
       <c r="EK3">
         <v>0</v>
       </c>
+      <c r="EL3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:141">
+    <row r="4" spans="1:142">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2121,8 +2163,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>141</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2133,11 +2175,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>142</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2148,8 +2190,8 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="N4" t="s">
+        <v>143</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2157,8 +2199,8 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
+      <c r="Q4" t="s">
+        <v>145</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2170,355 +2212,355 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
+      <c r="W4" t="s">
+        <v>151</v>
       </c>
       <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>3</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>5</v>
+      </c>
+      <c r="BM4">
+        <v>4</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>5</v>
+      </c>
+      <c r="CA4">
+        <v>4</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
         <v>3</v>
       </c>
-      <c r="AH4">
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
         <v>2</v>
       </c>
-      <c r="AI4">
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>9</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>9</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>162</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>9</v>
+      </c>
+      <c r="EF4">
+        <v>5</v>
+      </c>
+      <c r="EG4">
         <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>3</v>
-      </c>
-      <c r="BM4">
-        <v>2</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>3</v>
-      </c>
-      <c r="CA4">
-        <v>2</v>
-      </c>
-      <c r="CB4">
-        <v>1</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DD4">
-        <v>0</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DF4">
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DH4">
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <v>0</v>
-      </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DL4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
-      <c r="DR4">
-        <v>0</v>
-      </c>
-      <c r="DS4">
-        <v>0</v>
-      </c>
-      <c r="DT4">
-        <v>0</v>
-      </c>
-      <c r="DU4">
-        <v>0</v>
-      </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="DW4">
-        <v>0</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
-      </c>
-      <c r="DY4">
-        <v>0</v>
-      </c>
-      <c r="DZ4">
-        <v>0</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4">
-        <v>0</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="EE4">
-        <v>0</v>
-      </c>
-      <c r="EF4">
-        <v>0</v>
-      </c>
-      <c r="EG4">
-        <v>0</v>
       </c>
       <c r="EH4">
         <v>0</v>
@@ -2529,11 +2571,14 @@
       <c r="EJ4">
         <v>0</v>
       </c>
-      <c r="EK4" t="s">
-        <v>152</v>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:141">
+    <row r="5" spans="1:142">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2546,8 +2591,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>141</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2558,11 +2603,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>142</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2582,8 +2627,8 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
+      <c r="Q5" t="s">
+        <v>144</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2595,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
+      <c r="W5" t="s">
+        <v>150</v>
       </c>
       <c r="X5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -2631,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -2724,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BM5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
@@ -2753,11 +2798,11 @@
       <c r="BU5">
         <v>0</v>
       </c>
-      <c r="BV5">
-        <v>0</v>
+      <c r="BV5" t="s">
+        <v>155</v>
       </c>
       <c r="BW5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -2766,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -2790,119 +2835,119 @@
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
         <v>2</v>
       </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>1</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5">
-        <v>0</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DD5">
-        <v>0</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DF5">
-        <v>0</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DH5">
-        <v>0</v>
-      </c>
-      <c r="DI5">
-        <v>0</v>
-      </c>
-      <c r="DJ5">
-        <v>0</v>
-      </c>
-      <c r="DK5">
-        <v>0</v>
-      </c>
-      <c r="DL5">
-        <v>0</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DN5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DP5">
-        <v>0</v>
-      </c>
-      <c r="DQ5">
-        <v>0</v>
-      </c>
-      <c r="DR5">
-        <v>0</v>
-      </c>
-      <c r="DS5">
-        <v>0</v>
-      </c>
       <c r="DT5">
         <v>0</v>
       </c>
@@ -2910,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="DV5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DW5">
         <v>0</v>
@@ -2937,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="EE5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF5">
         <v>0</v>
@@ -2954,8 +2999,2151 @@
       <c r="EJ5">
         <v>0</v>
       </c>
-      <c r="EK5" t="s">
-        <v>152</v>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:142">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>150</v>
+      </c>
+      <c r="X6">
+        <v>12</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>12</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>12</v>
+      </c>
+      <c r="BM6">
+        <v>2</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>12</v>
+      </c>
+      <c r="CA6">
+        <v>2</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>14</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>14</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>14</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>2025</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:142">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>145</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>151</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>6</v>
+      </c>
+      <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>6</v>
+      </c>
+      <c r="BM7">
+        <v>7</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>6</v>
+      </c>
+      <c r="CA7">
+        <v>7</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>13</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>13</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>2</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>1</v>
+      </c>
+      <c r="EA7">
+        <v>1</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>13</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>2025</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:142">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>146</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>150</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>12</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>2</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>12</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>158</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>12</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>3</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>1</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>1</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>12</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>12</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>6</v>
+      </c>
+      <c r="DY8">
+        <v>1</v>
+      </c>
+      <c r="DZ8">
+        <v>2</v>
+      </c>
+      <c r="EA8">
+        <v>2</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>162</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>12</v>
+      </c>
+      <c r="EF8">
+        <v>3</v>
+      </c>
+      <c r="EG8">
+        <v>1</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>2025</v>
+      </c>
+      <c r="EJ8">
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:142">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>3</v>
+      </c>
+      <c r="BM9">
+        <v>2</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>3</v>
+      </c>
+      <c r="CA9">
+        <v>2</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>2025</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>163</v>
+      </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:142">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>149</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>11</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>11</v>
+      </c>
+      <c r="BM10">
+        <v>5</v>
+      </c>
+      <c r="BN10">
+        <v>3</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>11</v>
+      </c>
+      <c r="CI10">
+        <v>5</v>
+      </c>
+      <c r="CJ10">
+        <v>2</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>0</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10">
+        <v>2025</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>163</v>
+      </c>
+      <c r="EL10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
